--- a/outputs-r202/train-f__Fibrobacteraceae.xlsx
+++ b/outputs-r202/train-f__Fibrobacteraceae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>Row</t>
   </si>
@@ -605,6 +606,144 @@
   </si>
   <si>
     <t>GB_GCA_002314675.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_903876665.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462345.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462345.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515825.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515825.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515825.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515825.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012515825.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012841225.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002394865.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002210425.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900177705.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_902800815.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002390045.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003003115.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003003115.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900167415.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900167415.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900167415.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462225.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462225.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001462235.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009787645.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523035.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523035.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523035.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012523035.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012511955.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012511955.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001873075.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001873075.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001873075.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001873075.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001873075.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002307115.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002307115.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002307115.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314675.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314675.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314675.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314675.1_6.fasta</t>
   </si>
 </sst>
 </file>
@@ -625,7 +764,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -641,11 +780,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -655,6 +796,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7896,4 +8039,1813 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L47"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="16.5703125" customWidth="true"/>
+    <col min="6" max="6" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="8" max="8" width="15.5703125" customWidth="true"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="10.28515625" customWidth="true"/>
+    <col min="12" max="12" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="C15">
+        <v>0.99999999999979561</v>
+      </c>
+      <c r="D15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="E15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="I15">
+        <v>4.8875360552762931e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.2204460492502235e-14</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21">
+        <v>6.5347827719819085e-13</v>
+      </c>
+      <c r="C21">
+        <v>6.5347827719819085e-13</v>
+      </c>
+      <c r="D21">
+        <v>6.5347827719819085e-13</v>
+      </c>
+      <c r="E21">
+        <v>0.49368195498337991</v>
+      </c>
+      <c r="F21">
+        <v>0.50631804501204569</v>
+      </c>
+      <c r="G21">
+        <v>6.5347827719819085e-13</v>
+      </c>
+      <c r="H21">
+        <v>6.5347827719819085e-13</v>
+      </c>
+      <c r="I21">
+        <v>6.5347827719823487e-13</v>
+      </c>
+      <c r="J21">
+        <v>6.5347827719819095e-13</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.99999999999969091</v>
+      </c>
+      <c r="F24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="I24">
+        <v>1.5376315329744254e-13</v>
+      </c>
+      <c r="J24">
+        <v>2.2204460492501976e-14</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.99999999999973066</v>
+      </c>
+      <c r="F25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="G25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="H25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="I25">
+        <v>1.1400984117471258e-13</v>
+      </c>
+      <c r="J25">
+        <v>2.220446049250208e-14</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="E26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="F26">
+        <v>0.99999999999716649</v>
+      </c>
+      <c r="G26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.6779743300534506e-12</v>
+      </c>
+      <c r="J26">
+        <v>2.220446049249575e-14</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="E27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="F27">
+        <v>0.99999999995940536</v>
+      </c>
+      <c r="G27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="I27">
+        <v>4.0439260791895832e-11</v>
+      </c>
+      <c r="J27">
+        <v>2.2204460492402592e-14</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="E29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="F29">
+        <v>0.99999999999579881</v>
+      </c>
+      <c r="G29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="I29">
+        <v>4.0458184165775167e-12</v>
+      </c>
+      <c r="J29">
+        <v>2.2204460492492377e-14</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="F34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="G34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="H34">
+        <v>0.99999999999953859</v>
+      </c>
+      <c r="I34">
+        <v>3.0601223687047239e-13</v>
+      </c>
+      <c r="J34">
+        <v>2.2204460492501607e-14</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="C35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="D35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="E35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="F35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="G35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="H35">
+        <v>0.99999999999934674</v>
+      </c>
+      <c r="I35">
+        <v>4.9777876752379877e-13</v>
+      </c>
+      <c r="J35">
+        <v>2.2204460492501133e-14</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36">
+        <v>0.0091690084959731386</v>
+      </c>
+      <c r="C36">
+        <v>0.0091690084959731386</v>
+      </c>
+      <c r="D36">
+        <v>0.0091690084959731386</v>
+      </c>
+      <c r="E36">
+        <v>0.0091690084959731005</v>
+      </c>
+      <c r="F36">
+        <v>0.0091690084959731005</v>
+      </c>
+      <c r="G36">
+        <v>0.0091690084959731508</v>
+      </c>
+      <c r="H36">
+        <v>0.0091690084959731421</v>
+      </c>
+      <c r="I36">
+        <v>0.92664793203221463</v>
+      </c>
+      <c r="J36">
+        <v>0.0091690084959734283</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37">
+        <v>0.015181307558541633</v>
+      </c>
+      <c r="C37">
+        <v>0.015181307558541633</v>
+      </c>
+      <c r="D37">
+        <v>0.015181307558541633</v>
+      </c>
+      <c r="E37">
+        <v>0.0151813075585416</v>
+      </c>
+      <c r="F37">
+        <v>0.015181307558541591</v>
+      </c>
+      <c r="G37">
+        <v>0.01518130755854164</v>
+      </c>
+      <c r="H37">
+        <v>0.015181307558541643</v>
+      </c>
+      <c r="I37">
+        <v>0.87854953953166659</v>
+      </c>
+      <c r="J37">
+        <v>0.015181307558541966</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38">
+        <v>0.0022328193812931087</v>
+      </c>
+      <c r="C38">
+        <v>0.0022328193812931087</v>
+      </c>
+      <c r="D38">
+        <v>0.0022328193812931087</v>
+      </c>
+      <c r="E38">
+        <v>0.0022328193812931017</v>
+      </c>
+      <c r="F38">
+        <v>0.0022328193812931017</v>
+      </c>
+      <c r="G38">
+        <v>0.0022328193812931121</v>
+      </c>
+      <c r="H38">
+        <v>0.0022328193812931126</v>
+      </c>
+      <c r="I38">
+        <v>0.98213744494965494</v>
+      </c>
+      <c r="J38">
+        <v>0.002232819381293123</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39">
+        <v>0.0021280403033451445</v>
+      </c>
+      <c r="C39">
+        <v>0.0021280403033451445</v>
+      </c>
+      <c r="D39">
+        <v>0.0021280403033451445</v>
+      </c>
+      <c r="E39">
+        <v>0.002128040303345134</v>
+      </c>
+      <c r="F39">
+        <v>0.0021280403033451306</v>
+      </c>
+      <c r="G39">
+        <v>0.0021280403033451531</v>
+      </c>
+      <c r="H39">
+        <v>0.002128040303345164</v>
+      </c>
+      <c r="I39">
+        <v>0.98297567757323867</v>
+      </c>
+      <c r="J39">
+        <v>0.0021280403033453426</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40">
+        <v>0.0025577299322674697</v>
+      </c>
+      <c r="C40">
+        <v>0.0025577299322674697</v>
+      </c>
+      <c r="D40">
+        <v>0.0025577299322674697</v>
+      </c>
+      <c r="E40">
+        <v>0.0025577299322674558</v>
+      </c>
+      <c r="F40">
+        <v>0.0025577299322674545</v>
+      </c>
+      <c r="G40">
+        <v>0.0025577299322674797</v>
+      </c>
+      <c r="H40">
+        <v>0.0025577299322674879</v>
+      </c>
+      <c r="I40">
+        <v>0.97953816054186005</v>
+      </c>
+      <c r="J40">
+        <v>0.0025577299322676935</v>
+      </c>
+      <c r="K40">
+        <v>8</v>
+      </c>
+      <c r="L40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41">
+        <v>0.001999706158509132</v>
+      </c>
+      <c r="C41">
+        <v>0.001999706158509132</v>
+      </c>
+      <c r="D41">
+        <v>0.001999706158509132</v>
+      </c>
+      <c r="E41">
+        <v>0.0019997061585091298</v>
+      </c>
+      <c r="F41">
+        <v>0.0019997061585091177</v>
+      </c>
+      <c r="G41">
+        <v>0.0019997061585091372</v>
+      </c>
+      <c r="H41">
+        <v>0.0019997061585091398</v>
+      </c>
+      <c r="I41">
+        <v>0.98400235073192655</v>
+      </c>
+      <c r="J41">
+        <v>0.0019997061585093228</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42">
+        <v>0.0040677601467719367</v>
+      </c>
+      <c r="C42">
+        <v>0.0040677601467719367</v>
+      </c>
+      <c r="D42">
+        <v>0.0040677601467719367</v>
+      </c>
+      <c r="E42">
+        <v>0.004067760146771922</v>
+      </c>
+      <c r="F42">
+        <v>0.004067760146771922</v>
+      </c>
+      <c r="G42">
+        <v>0.0040677601467719489</v>
+      </c>
+      <c r="H42">
+        <v>0.0040677601467719593</v>
+      </c>
+      <c r="I42">
+        <v>0.96745791882582433</v>
+      </c>
+      <c r="J42">
+        <v>0.0040677601467721831</v>
+      </c>
+      <c r="K42">
+        <v>8</v>
+      </c>
+      <c r="L42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43">
+        <v>0.0066729018713341335</v>
+      </c>
+      <c r="C43">
+        <v>0.0066729018713341335</v>
+      </c>
+      <c r="D43">
+        <v>0.0066729018713341335</v>
+      </c>
+      <c r="E43">
+        <v>0.0066729018713341162</v>
+      </c>
+      <c r="F43">
+        <v>0.0066729018713341153</v>
+      </c>
+      <c r="G43">
+        <v>0.0066729018713341404</v>
+      </c>
+      <c r="H43">
+        <v>0.0066729018713341396</v>
+      </c>
+      <c r="I43">
+        <v>0.946616785029327</v>
+      </c>
+      <c r="J43">
+        <v>0.0066729018713341517</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="G44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="H44">
+        <v>2.2204460492501061e-14</v>
+      </c>
+      <c r="I44">
+        <v>5.2688969512327351e-13</v>
+      </c>
+      <c r="J44">
+        <v>0.99999999999931777</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45">
+        <v>0.076976693359130891</v>
+      </c>
+      <c r="C45">
+        <v>0.076976693359130891</v>
+      </c>
+      <c r="D45">
+        <v>0.076976693359130891</v>
+      </c>
+      <c r="E45">
+        <v>0.076976693359130891</v>
+      </c>
+      <c r="F45">
+        <v>0.076976693359130891</v>
+      </c>
+      <c r="G45">
+        <v>0.076976693359130974</v>
+      </c>
+      <c r="H45">
+        <v>0.076976693359130988</v>
+      </c>
+      <c r="I45">
+        <v>0.19602392550855308</v>
+      </c>
+      <c r="J45">
+        <v>0.26513922097753057</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46">
+        <v>0.077423104593983966</v>
+      </c>
+      <c r="C46">
+        <v>0.077423104593983966</v>
+      </c>
+      <c r="D46">
+        <v>0.077423104593983966</v>
+      </c>
+      <c r="E46">
+        <v>0.077423104593983938</v>
+      </c>
+      <c r="F46">
+        <v>0.077423104593983924</v>
+      </c>
+      <c r="G46">
+        <v>0.077423104593984035</v>
+      </c>
+      <c r="H46">
+        <v>0.077423104593984035</v>
+      </c>
+      <c r="I46">
+        <v>0.19650431034337046</v>
+      </c>
+      <c r="J46">
+        <v>0.26153395749874181</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>